--- a/data/pca/factorExposure/factorExposure_2015-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02409054916218805</v>
+        <v>-0.01831457387015151</v>
       </c>
       <c r="C2">
-        <v>0.03288189104057371</v>
+        <v>-0.04594160616146919</v>
       </c>
       <c r="D2">
-        <v>-0.1312876085472778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.141354620848122</v>
+      </c>
+      <c r="E2">
+        <v>0.006628857100721849</v>
+      </c>
+      <c r="F2">
+        <v>-0.0008216757034832982</v>
+      </c>
+      <c r="G2">
+        <v>-0.1122251635297147</v>
+      </c>
+      <c r="H2">
+        <v>0.005316990815072383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01218993944642219</v>
+        <v>0.01534645729415668</v>
       </c>
       <c r="C3">
-        <v>0.05441402588135206</v>
+        <v>-0.03621666265884766</v>
       </c>
       <c r="D3">
-        <v>-0.06954069244328769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04968901172159781</v>
+      </c>
+      <c r="E3">
+        <v>0.04941077518471036</v>
+      </c>
+      <c r="F3">
+        <v>-0.01767897885538678</v>
+      </c>
+      <c r="G3">
+        <v>-0.1235889038014256</v>
+      </c>
+      <c r="H3">
+        <v>0.01105425651625721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04650704919119526</v>
+        <v>-0.0364204850656714</v>
       </c>
       <c r="C4">
-        <v>0.07022193747821488</v>
+        <v>-0.08709061975266832</v>
       </c>
       <c r="D4">
-        <v>-0.1389738557426394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1528330094624394</v>
+      </c>
+      <c r="E4">
+        <v>0.02587725383136033</v>
+      </c>
+      <c r="F4">
+        <v>-0.07356272852981162</v>
+      </c>
+      <c r="G4">
+        <v>0.01326403187510643</v>
+      </c>
+      <c r="H4">
+        <v>0.03738782268046759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02864649235872523</v>
+        <v>-0.02827330220137346</v>
       </c>
       <c r="C6">
-        <v>0.02364929971659751</v>
+        <v>-0.03315955774026334</v>
       </c>
       <c r="D6">
-        <v>-0.1607585142016374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1396338985068858</v>
+      </c>
+      <c r="E6">
+        <v>-0.02188193398022534</v>
+      </c>
+      <c r="F6">
+        <v>-0.0596767979821051</v>
+      </c>
+      <c r="G6">
+        <v>-0.0550944388590001</v>
+      </c>
+      <c r="H6">
+        <v>0.006609902929801831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01464209287426054</v>
+        <v>-0.009887586700200143</v>
       </c>
       <c r="C7">
-        <v>0.03114805188816798</v>
+        <v>-0.03790900256370388</v>
       </c>
       <c r="D7">
-        <v>-0.1203485224782455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09982028996932239</v>
+      </c>
+      <c r="E7">
+        <v>-0.03612877186724484</v>
+      </c>
+      <c r="F7">
+        <v>-0.01882917398343271</v>
+      </c>
+      <c r="G7">
+        <v>-0.06058582064314141</v>
+      </c>
+      <c r="H7">
+        <v>0.04242977272024726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.007758962702092806</v>
+        <v>-0.000226630418395245</v>
       </c>
       <c r="C8">
-        <v>0.03478499991530348</v>
+        <v>-0.04011507548167619</v>
       </c>
       <c r="D8">
-        <v>-0.0811940305897766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08088375768091728</v>
+      </c>
+      <c r="E8">
+        <v>-0.008403817743363556</v>
+      </c>
+      <c r="F8">
+        <v>-0.04999934046838619</v>
+      </c>
+      <c r="G8">
+        <v>-0.07681067948638527</v>
+      </c>
+      <c r="H8">
+        <v>-0.03875679048461959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03552784804422463</v>
+        <v>-0.02626864885547008</v>
       </c>
       <c r="C9">
-        <v>0.06262988243635424</v>
+        <v>-0.07516665833119338</v>
       </c>
       <c r="D9">
-        <v>-0.1279984592690888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1276523447581716</v>
+      </c>
+      <c r="E9">
+        <v>0.01436280040129777</v>
+      </c>
+      <c r="F9">
+        <v>-0.04522215525993965</v>
+      </c>
+      <c r="G9">
+        <v>0.01024329510754322</v>
+      </c>
+      <c r="H9">
+        <v>0.03862386711304688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.142746237117148</v>
+        <v>-0.1957996560775782</v>
       </c>
       <c r="C10">
-        <v>-0.1799970092411003</v>
+        <v>0.1500738667549691</v>
       </c>
       <c r="D10">
-        <v>-0.009666459674146737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01400297953001704</v>
+      </c>
+      <c r="E10">
+        <v>0.02792357238398977</v>
+      </c>
+      <c r="F10">
+        <v>-0.04558639553766097</v>
+      </c>
+      <c r="G10">
+        <v>0.02382631841925412</v>
+      </c>
+      <c r="H10">
+        <v>-0.05586302088838393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02947931694130048</v>
+        <v>-0.02098049812899079</v>
       </c>
       <c r="C11">
-        <v>0.04403418392772692</v>
+        <v>-0.05289087990437798</v>
       </c>
       <c r="D11">
-        <v>-0.05730513809760263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05080880490870488</v>
+      </c>
+      <c r="E11">
+        <v>-0.0219696005608545</v>
+      </c>
+      <c r="F11">
+        <v>0.01292589401154848</v>
+      </c>
+      <c r="G11">
+        <v>-0.02549389770228877</v>
+      </c>
+      <c r="H11">
+        <v>0.03802429517907722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03554927241155822</v>
+        <v>-0.0241433588538729</v>
       </c>
       <c r="C12">
-        <v>0.04759995557964306</v>
+        <v>-0.05561722374252555</v>
       </c>
       <c r="D12">
-        <v>-0.0720339179104398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05361597779705934</v>
+      </c>
+      <c r="E12">
+        <v>-0.0185733260649753</v>
+      </c>
+      <c r="F12">
+        <v>0.01950572076828976</v>
+      </c>
+      <c r="G12">
+        <v>-0.02870258619786144</v>
+      </c>
+      <c r="H12">
+        <v>0.06800811273408684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007777878057257877</v>
+        <v>-0.008255287152506197</v>
       </c>
       <c r="C13">
-        <v>0.03825242011868525</v>
+        <v>-0.04813753324489548</v>
       </c>
       <c r="D13">
-        <v>-0.1608510706947259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1642841068026356</v>
+      </c>
+      <c r="E13">
+        <v>-0.03165850831106093</v>
+      </c>
+      <c r="F13">
+        <v>-0.04444416758767658</v>
+      </c>
+      <c r="G13">
+        <v>-0.06524942981479991</v>
+      </c>
+      <c r="H13">
+        <v>0.02946665245769092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.001243356696030385</v>
+        <v>-0.002433587478324719</v>
       </c>
       <c r="C14">
-        <v>0.02603858607482679</v>
+        <v>-0.02876851152320627</v>
       </c>
       <c r="D14">
-        <v>-0.1113512202960355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1071368155221206</v>
+      </c>
+      <c r="E14">
+        <v>-0.01126783755315362</v>
+      </c>
+      <c r="F14">
+        <v>-0.01921417191979237</v>
+      </c>
+      <c r="G14">
+        <v>-0.08023995867913154</v>
+      </c>
+      <c r="H14">
+        <v>0.06707900544104586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003369251407977799</v>
+        <v>-0.0001507208402814582</v>
       </c>
       <c r="C15">
-        <v>0.006051066923781948</v>
+        <v>-0.01548360169994362</v>
       </c>
       <c r="D15">
-        <v>-0.01296069312230862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04313350737426211</v>
+      </c>
+      <c r="E15">
+        <v>-0.002183599957233802</v>
+      </c>
+      <c r="F15">
+        <v>-0.001883362907006342</v>
+      </c>
+      <c r="G15">
+        <v>-0.01884087620150068</v>
+      </c>
+      <c r="H15">
+        <v>0.0006136346239365975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02533156959224356</v>
+        <v>-0.01846879005067965</v>
       </c>
       <c r="C16">
-        <v>0.04516324445279547</v>
+        <v>-0.05077497854283176</v>
       </c>
       <c r="D16">
-        <v>-0.07378199311590247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05950362227661832</v>
+      </c>
+      <c r="E16">
+        <v>-0.01444515670215959</v>
+      </c>
+      <c r="F16">
+        <v>0.0002915085341788939</v>
+      </c>
+      <c r="G16">
+        <v>-0.03696364287780814</v>
+      </c>
+      <c r="H16">
+        <v>0.05761773728650364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.007909117049152757</v>
+        <v>-0.002959251883348297</v>
       </c>
       <c r="C19">
-        <v>0.03277686335987798</v>
+        <v>-0.02786786424722217</v>
       </c>
       <c r="D19">
-        <v>-0.1648621847809608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.11347395462743</v>
+      </c>
+      <c r="E19">
+        <v>0.02487803267580571</v>
+      </c>
+      <c r="F19">
+        <v>-0.006480077883756234</v>
+      </c>
+      <c r="G19">
+        <v>-0.05258468148570655</v>
+      </c>
+      <c r="H19">
+        <v>0.0571543122130194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0107098915749058</v>
+        <v>-0.009540339492607866</v>
       </c>
       <c r="C20">
-        <v>0.03536304093746663</v>
+        <v>-0.04031115037984356</v>
       </c>
       <c r="D20">
-        <v>-0.1055684421317424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1073860692241357</v>
+      </c>
+      <c r="E20">
+        <v>0.01061030968774152</v>
+      </c>
+      <c r="F20">
+        <v>-0.0302835083779876</v>
+      </c>
+      <c r="G20">
+        <v>-0.05228767831541543</v>
+      </c>
+      <c r="H20">
+        <v>0.04543615279540181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009943844296447105</v>
+        <v>-0.004732931511987065</v>
       </c>
       <c r="C21">
-        <v>0.04006271696825138</v>
+        <v>-0.04690894951841734</v>
       </c>
       <c r="D21">
-        <v>-0.1819590660781835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.159887081617953</v>
+      </c>
+      <c r="E21">
+        <v>0.02572429790766241</v>
+      </c>
+      <c r="F21">
+        <v>-0.06476998894513966</v>
+      </c>
+      <c r="G21">
+        <v>-0.09315081601725901</v>
+      </c>
+      <c r="H21">
+        <v>0.1019570599847412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0005057566963936227</v>
+        <v>-0.0005299981295625743</v>
       </c>
       <c r="C22">
-        <v>0.05166594525810344</v>
+        <v>-0.06090490246793021</v>
       </c>
       <c r="D22">
-        <v>-0.1556990769991934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2153329197018198</v>
+      </c>
+      <c r="E22">
+        <v>-0.0476161855814221</v>
+      </c>
+      <c r="F22">
+        <v>-0.02364209169324565</v>
+      </c>
+      <c r="G22">
+        <v>0.005602617922568818</v>
+      </c>
+      <c r="H22">
+        <v>-0.4856409009433258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.00067864735622643</v>
+        <v>-0.001037897117982967</v>
       </c>
       <c r="C23">
-        <v>0.0520196572459064</v>
+        <v>-0.06133474083757537</v>
       </c>
       <c r="D23">
-        <v>-0.1552383285891161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2156214621099911</v>
+      </c>
+      <c r="E23">
+        <v>-0.04526239292361316</v>
+      </c>
+      <c r="F23">
+        <v>-0.02231227899611565</v>
+      </c>
+      <c r="G23">
+        <v>0.00727146801969877</v>
+      </c>
+      <c r="H23">
+        <v>-0.4855415710081993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03260176765915898</v>
+        <v>-0.02076531095980098</v>
       </c>
       <c r="C24">
-        <v>0.059454469978066</v>
+        <v>-0.06451020428918849</v>
       </c>
       <c r="D24">
-        <v>-0.0724833877005636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05821628101458481</v>
+      </c>
+      <c r="E24">
+        <v>-0.01569684076563694</v>
+      </c>
+      <c r="F24">
+        <v>-0.00087526002329574</v>
+      </c>
+      <c r="G24">
+        <v>-0.04453475614710074</v>
+      </c>
+      <c r="H24">
+        <v>0.06518493185630213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03692280902589133</v>
+        <v>-0.02584458010921858</v>
       </c>
       <c r="C25">
-        <v>0.05202481232816693</v>
+        <v>-0.06077421495288517</v>
       </c>
       <c r="D25">
-        <v>-0.07426537423035888</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06202715408066345</v>
+      </c>
+      <c r="E25">
+        <v>-0.006893409359274071</v>
+      </c>
+      <c r="F25">
+        <v>0.005760011077865023</v>
+      </c>
+      <c r="G25">
+        <v>-0.02278461460879506</v>
+      </c>
+      <c r="H25">
+        <v>0.04326916364105065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01053857941761965</v>
+        <v>-0.009185423895293735</v>
       </c>
       <c r="C26">
-        <v>0.01465377116130953</v>
+        <v>-0.02271951698200243</v>
       </c>
       <c r="D26">
-        <v>-0.07894244907530829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07177811005599156</v>
+      </c>
+      <c r="E26">
+        <v>-0.008967875927556357</v>
+      </c>
+      <c r="F26">
+        <v>-0.02582040878452005</v>
+      </c>
+      <c r="G26">
+        <v>-0.04779957245561533</v>
+      </c>
+      <c r="H26">
+        <v>0.04984661174188176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.210343999845388</v>
+        <v>-0.2779963492202599</v>
       </c>
       <c r="C28">
-        <v>-0.2368875527509305</v>
+        <v>0.188842785086338</v>
       </c>
       <c r="D28">
-        <v>-0.01225346933922702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004997099424750755</v>
+      </c>
+      <c r="E28">
+        <v>0.05415750880244174</v>
+      </c>
+      <c r="F28">
+        <v>-0.04612685488550232</v>
+      </c>
+      <c r="G28">
+        <v>0.04005563955734565</v>
+      </c>
+      <c r="H28">
+        <v>-0.02979861100291189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0002264824038912976</v>
+        <v>-0.001618030754025692</v>
       </c>
       <c r="C29">
-        <v>0.02376979140879039</v>
+        <v>-0.02718457992733645</v>
       </c>
       <c r="D29">
-        <v>-0.1046948621893582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1059106768730002</v>
+      </c>
+      <c r="E29">
+        <v>-0.02496129000958929</v>
+      </c>
+      <c r="F29">
+        <v>-0.03428964246783937</v>
+      </c>
+      <c r="G29">
+        <v>-0.06984271401880861</v>
+      </c>
+      <c r="H29">
+        <v>0.0687980551422185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02425286420748904</v>
+        <v>-0.02156721942770977</v>
       </c>
       <c r="C30">
-        <v>0.06499132106838827</v>
+        <v>-0.07803566985341273</v>
       </c>
       <c r="D30">
-        <v>-0.1696329667232434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1684972156762473</v>
+      </c>
+      <c r="E30">
+        <v>-0.03001081758369426</v>
+      </c>
+      <c r="F30">
+        <v>-0.03971262423628474</v>
+      </c>
+      <c r="G30">
+        <v>-0.04534391483304868</v>
+      </c>
+      <c r="H30">
+        <v>0.02070110698154219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04974808722083573</v>
+        <v>-0.03092727120149225</v>
       </c>
       <c r="C31">
-        <v>0.07835510434248449</v>
+        <v>-0.0854698084759337</v>
       </c>
       <c r="D31">
-        <v>-0.07110748402826406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04835995630736997</v>
+      </c>
+      <c r="E31">
+        <v>-0.003794177862208911</v>
+      </c>
+      <c r="F31">
+        <v>-0.02148001692620314</v>
+      </c>
+      <c r="G31">
+        <v>-0.01986142911335107</v>
+      </c>
+      <c r="H31">
+        <v>0.01576728609152845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02854158777451096</v>
+        <v>-0.02356624340072395</v>
       </c>
       <c r="C32">
-        <v>0.03254614612957649</v>
+        <v>-0.03982018098170369</v>
       </c>
       <c r="D32">
-        <v>-0.1206465254889858</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.127948990575786</v>
+      </c>
+      <c r="E32">
+        <v>0.006689251703465166</v>
+      </c>
+      <c r="F32">
+        <v>-0.04051514520390977</v>
+      </c>
+      <c r="G32">
+        <v>-0.04118823433658944</v>
+      </c>
+      <c r="H32">
+        <v>0.016608289469283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.01939304517856807</v>
+        <v>-0.01706139551081155</v>
       </c>
       <c r="C33">
-        <v>0.04608614661637862</v>
+        <v>-0.05336039359772841</v>
       </c>
       <c r="D33">
-        <v>-0.1601088695133675</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1404860972153803</v>
+      </c>
+      <c r="E33">
+        <v>-0.002209793112208271</v>
+      </c>
+      <c r="F33">
+        <v>-0.02734557556144252</v>
+      </c>
+      <c r="G33">
+        <v>-0.04153299398749055</v>
+      </c>
+      <c r="H33">
+        <v>0.04182212540159307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03104957342808883</v>
+        <v>-0.01861284726181727</v>
       </c>
       <c r="C34">
-        <v>0.06470761720017676</v>
+        <v>-0.0667428226619889</v>
       </c>
       <c r="D34">
-        <v>-0.06851804633218544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04723390239405161</v>
+      </c>
+      <c r="E34">
+        <v>-0.02997440576086988</v>
+      </c>
+      <c r="F34">
+        <v>0.02524005327464561</v>
+      </c>
+      <c r="G34">
+        <v>-0.04057411813284647</v>
+      </c>
+      <c r="H34">
+        <v>0.05531103699853461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001508244697754398</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002514925946087348</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01226181961432186</v>
+      </c>
+      <c r="E35">
+        <v>-0.0012475915705203</v>
+      </c>
+      <c r="F35">
+        <v>0.001136727280114077</v>
+      </c>
+      <c r="G35">
+        <v>-0.001546342700648709</v>
+      </c>
+      <c r="H35">
+        <v>0.003911091413102522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01576512134518209</v>
+        <v>-0.01553588145640336</v>
       </c>
       <c r="C36">
-        <v>0.007055746159264088</v>
+        <v>-0.01814652349000855</v>
       </c>
       <c r="D36">
-        <v>-0.1003704990197951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08731546923932446</v>
+      </c>
+      <c r="E36">
+        <v>-0.0008603138609378388</v>
+      </c>
+      <c r="F36">
+        <v>-0.02806232216193649</v>
+      </c>
+      <c r="G36">
+        <v>-0.03234202008818417</v>
+      </c>
+      <c r="H36">
+        <v>0.04686368386306235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01556764613049313</v>
+        <v>-0.02050974090362478</v>
       </c>
       <c r="C38">
-        <v>0.01589225574904628</v>
+        <v>-0.02071002276298366</v>
       </c>
       <c r="D38">
-        <v>-0.09103704744235976</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08646681428214835</v>
+      </c>
+      <c r="E38">
+        <v>0.01621332926424025</v>
+      </c>
+      <c r="F38">
+        <v>0.01969973049731275</v>
+      </c>
+      <c r="G38">
+        <v>-0.03887603415842883</v>
+      </c>
+      <c r="H38">
+        <v>0.03059981299952178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03318014223632542</v>
+        <v>-0.02245476814124105</v>
       </c>
       <c r="C39">
-        <v>0.06015581592475702</v>
+        <v>-0.07528322377309868</v>
       </c>
       <c r="D39">
-        <v>-0.1136081510050244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1085753715439922</v>
+      </c>
+      <c r="E39">
+        <v>-0.0383611371045685</v>
+      </c>
+      <c r="F39">
+        <v>0.006685212974456457</v>
+      </c>
+      <c r="G39">
+        <v>-0.05200186448348793</v>
+      </c>
+      <c r="H39">
+        <v>0.08298451128620099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01490143119389567</v>
+        <v>-0.008684191812778767</v>
       </c>
       <c r="C40">
-        <v>0.04643138949288179</v>
+        <v>-0.04343150767506676</v>
       </c>
       <c r="D40">
-        <v>-0.1229007088655116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1057640422893322</v>
+      </c>
+      <c r="E40">
+        <v>-0.005587863429058522</v>
+      </c>
+      <c r="F40">
+        <v>-0.03695317273725512</v>
+      </c>
+      <c r="G40">
+        <v>-0.2304538424098151</v>
+      </c>
+      <c r="H40">
+        <v>-0.0610700235935256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03028719637245495</v>
+        <v>-0.02661176058238698</v>
       </c>
       <c r="C41">
-        <v>0.008502538195674172</v>
+        <v>-0.01852848227978582</v>
       </c>
       <c r="D41">
-        <v>-0.08822579158218943</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06030936438440271</v>
+      </c>
+      <c r="E41">
+        <v>0.01888302588340932</v>
+      </c>
+      <c r="F41">
+        <v>-0.00551446997547687</v>
+      </c>
+      <c r="G41">
+        <v>-0.03498417301469641</v>
+      </c>
+      <c r="H41">
+        <v>0.0226454050546343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02331834882190792</v>
+        <v>-0.0183914428992044</v>
       </c>
       <c r="C43">
-        <v>0.01660350600107626</v>
+        <v>-0.02355250457152031</v>
       </c>
       <c r="D43">
-        <v>-0.1102709129442635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07874994029916232</v>
+      </c>
+      <c r="E43">
+        <v>0.004317137117106379</v>
+      </c>
+      <c r="F43">
+        <v>-0.005326961310366921</v>
+      </c>
+      <c r="G43">
+        <v>-0.05026192271230407</v>
+      </c>
+      <c r="H43">
+        <v>0.04935048555243209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.00570762085041129</v>
+        <v>-0.007210154997290302</v>
       </c>
       <c r="C44">
-        <v>0.0424560351550354</v>
+        <v>-0.04348164589928687</v>
       </c>
       <c r="D44">
-        <v>-0.1068319149750649</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1166738284645792</v>
+      </c>
+      <c r="E44">
+        <v>0.004916424262204913</v>
+      </c>
+      <c r="F44">
+        <v>-0.02517857643952489</v>
+      </c>
+      <c r="G44">
+        <v>-0.04768819581254574</v>
+      </c>
+      <c r="H44">
+        <v>0.03514495076804599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01199231605001891</v>
+        <v>-0.007004837128374047</v>
       </c>
       <c r="C46">
-        <v>0.02765579840552476</v>
+        <v>-0.03422758808369075</v>
       </c>
       <c r="D46">
-        <v>-0.1106330707430005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09770078394617442</v>
+      </c>
+      <c r="E46">
+        <v>-0.01139939305331518</v>
+      </c>
+      <c r="F46">
+        <v>-0.02435940253980516</v>
+      </c>
+      <c r="G46">
+        <v>-0.06756638794832227</v>
+      </c>
+      <c r="H46">
+        <v>0.08168158769219233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08816763158928452</v>
+        <v>-0.06148700106481301</v>
       </c>
       <c r="C47">
-        <v>0.09366304527803022</v>
+        <v>-0.1098342729018361</v>
       </c>
       <c r="D47">
-        <v>-0.05441325050591373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03370491987348626</v>
+      </c>
+      <c r="E47">
+        <v>0.01207805597063878</v>
+      </c>
+      <c r="F47">
+        <v>-0.001558481189446466</v>
+      </c>
+      <c r="G47">
+        <v>0.03061662667414992</v>
+      </c>
+      <c r="H47">
+        <v>0.02672826899875297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.009631548493733755</v>
+        <v>-0.009464031603872864</v>
       </c>
       <c r="C48">
-        <v>0.01992971608293997</v>
+        <v>-0.02623737076292538</v>
       </c>
       <c r="D48">
-        <v>-0.1001537781476079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09162031602911763</v>
+      </c>
+      <c r="E48">
+        <v>0.01963147679778182</v>
+      </c>
+      <c r="F48">
+        <v>-0.03316719189360094</v>
+      </c>
+      <c r="G48">
+        <v>-0.04918363590694601</v>
+      </c>
+      <c r="H48">
+        <v>0.05722382732566285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04636830981034274</v>
+        <v>-0.03030957898871008</v>
       </c>
       <c r="C50">
-        <v>0.0625862706181</v>
+        <v>-0.07286355047048942</v>
       </c>
       <c r="D50">
-        <v>-0.07741841060711184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06051409219018393</v>
+      </c>
+      <c r="E50">
+        <v>0.0006815730902347698</v>
+      </c>
+      <c r="F50">
+        <v>-0.01041290704257226</v>
+      </c>
+      <c r="G50">
+        <v>-0.02879447370700387</v>
+      </c>
+      <c r="H50">
+        <v>-0.003482827263501069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008757952200785958</v>
+        <v>-0.00681286688782269</v>
       </c>
       <c r="C51">
-        <v>0.01489484030353153</v>
+        <v>-0.02185866039896017</v>
       </c>
       <c r="D51">
-        <v>-0.07649362011592099</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08067471779797822</v>
+      </c>
+      <c r="E51">
+        <v>-0.02391566936933037</v>
+      </c>
+      <c r="F51">
+        <v>-0.0353698103985902</v>
+      </c>
+      <c r="G51">
+        <v>-0.07352723770430944</v>
+      </c>
+      <c r="H51">
+        <v>0.03143691068628706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1026406900476952</v>
+        <v>-0.07848917286677058</v>
       </c>
       <c r="C53">
-        <v>0.1164187146585187</v>
+        <v>-0.1376124177668135</v>
       </c>
       <c r="D53">
-        <v>-0.01747917776904769</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.007903825105004165</v>
+      </c>
+      <c r="E53">
+        <v>0.05455247233634157</v>
+      </c>
+      <c r="F53">
+        <v>-0.07390598530790396</v>
+      </c>
+      <c r="G53">
+        <v>-0.01808573112634781</v>
+      </c>
+      <c r="H53">
+        <v>-0.01725867733118664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01581371708973266</v>
+        <v>-0.01331612205498574</v>
       </c>
       <c r="C54">
-        <v>0.02788138348565702</v>
+        <v>-0.03547969874615389</v>
       </c>
       <c r="D54">
-        <v>-0.1228705256748454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.1011215857177939</v>
+      </c>
+      <c r="E54">
+        <v>0.001281752689089887</v>
+      </c>
+      <c r="F54">
+        <v>-0.007809990763693144</v>
+      </c>
+      <c r="G54">
+        <v>-0.07751989586365902</v>
+      </c>
+      <c r="H54">
+        <v>0.04265926543911381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09360100079160312</v>
+        <v>-0.0697610963658165</v>
       </c>
       <c r="C55">
-        <v>0.08956116007480394</v>
+        <v>-0.1089760675675546</v>
       </c>
       <c r="D55">
-        <v>0.002636675728159563</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01082336162615772</v>
+      </c>
+      <c r="E55">
+        <v>0.01551272588027433</v>
+      </c>
+      <c r="F55">
+        <v>-0.04157484249507577</v>
+      </c>
+      <c r="G55">
+        <v>-0.02038449757796672</v>
+      </c>
+      <c r="H55">
+        <v>-0.03859096298555766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1302834301912947</v>
+        <v>-0.09671729153631353</v>
       </c>
       <c r="C56">
-        <v>0.1230848630057773</v>
+        <v>-0.1587348439857063</v>
       </c>
       <c r="D56">
-        <v>0.003707593343814765</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01260659292725237</v>
+      </c>
+      <c r="E56">
+        <v>0.04249523249009252</v>
+      </c>
+      <c r="F56">
+        <v>-0.03580211353569277</v>
+      </c>
+      <c r="G56">
+        <v>-0.01933169559006755</v>
+      </c>
+      <c r="H56">
+        <v>-0.05931092354172669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01518181414101868</v>
+        <v>0.005383998538208803</v>
       </c>
       <c r="C58">
-        <v>0.03803872704851705</v>
+        <v>-0.05130461576052749</v>
       </c>
       <c r="D58">
-        <v>-0.2217584759776496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2828352841522009</v>
+      </c>
+      <c r="E58">
+        <v>0.03896889767264211</v>
+      </c>
+      <c r="F58">
+        <v>-0.07714644538284522</v>
+      </c>
+      <c r="G58">
+        <v>-0.01876953110197493</v>
+      </c>
+      <c r="H58">
+        <v>-0.1649262934072522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.158026731413007</v>
+        <v>-0.2116845018196364</v>
       </c>
       <c r="C59">
-        <v>-0.1621433130628774</v>
+        <v>0.1249909323943204</v>
       </c>
       <c r="D59">
-        <v>-0.05510113323613977</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06624939373877271</v>
+      </c>
+      <c r="E59">
+        <v>0.03904966445864476</v>
+      </c>
+      <c r="F59">
+        <v>-0.007176134593946319</v>
+      </c>
+      <c r="G59">
+        <v>0.008723213800848144</v>
+      </c>
+      <c r="H59">
+        <v>-0.01583485502160845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2312325146585849</v>
+        <v>-0.1984687886051463</v>
       </c>
       <c r="C60">
-        <v>0.0881439204296168</v>
+        <v>-0.1453341098040931</v>
       </c>
       <c r="D60">
-        <v>-0.1179378901298363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06342438736033752</v>
+      </c>
+      <c r="E60">
+        <v>-0.3022301546092821</v>
+      </c>
+      <c r="F60">
+        <v>0.1590519305762955</v>
+      </c>
+      <c r="G60">
+        <v>0.2775684110305514</v>
+      </c>
+      <c r="H60">
+        <v>-0.03547379522273344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0370686754683297</v>
+        <v>-0.02573471052453182</v>
       </c>
       <c r="C61">
-        <v>0.0573786234834885</v>
+        <v>-0.06924336678173841</v>
       </c>
       <c r="D61">
-        <v>-0.1133839349380437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09133947462835966</v>
+      </c>
+      <c r="E61">
+        <v>-0.02654161473594054</v>
+      </c>
+      <c r="F61">
+        <v>0.008748513909199198</v>
+      </c>
+      <c r="G61">
+        <v>-0.03490971510948319</v>
+      </c>
+      <c r="H61">
+        <v>0.0832615480510734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01184005955318613</v>
+        <v>-0.008890373961880995</v>
       </c>
       <c r="C63">
-        <v>0.02603075941150979</v>
+        <v>-0.03428096198961974</v>
       </c>
       <c r="D63">
-        <v>-0.09396706828756189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07847090887972391</v>
+      </c>
+      <c r="E63">
+        <v>-0.01944963202957649</v>
+      </c>
+      <c r="F63">
+        <v>-0.02289892957467156</v>
+      </c>
+      <c r="G63">
+        <v>-0.04103457015682234</v>
+      </c>
+      <c r="H63">
+        <v>0.04058036333151164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05231241567341358</v>
+        <v>-0.03341628578074309</v>
       </c>
       <c r="C64">
-        <v>0.07661037730852246</v>
+        <v>-0.08747591418882933</v>
       </c>
       <c r="D64">
-        <v>-0.05492576790081872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05017811593144787</v>
+      </c>
+      <c r="E64">
+        <v>-0.009312992319557865</v>
+      </c>
+      <c r="F64">
+        <v>-0.0498586494319968</v>
+      </c>
+      <c r="G64">
+        <v>-0.01486017352647396</v>
+      </c>
+      <c r="H64">
+        <v>0.1131764374447112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02805808987239966</v>
+        <v>-0.02381811864091601</v>
       </c>
       <c r="C65">
-        <v>0.02336169556767546</v>
+        <v>-0.03663770063201</v>
       </c>
       <c r="D65">
-        <v>-0.1244365422383453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1087855845364906</v>
+      </c>
+      <c r="E65">
+        <v>-0.03116564197879876</v>
+      </c>
+      <c r="F65">
+        <v>-0.02012342262095313</v>
+      </c>
+      <c r="G65">
+        <v>-0.02078563976102856</v>
+      </c>
+      <c r="H65">
+        <v>0.000275335074240532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0330502285609002</v>
+        <v>-0.02213107046707798</v>
       </c>
       <c r="C66">
-        <v>0.06823280303743126</v>
+        <v>-0.0865523653613124</v>
       </c>
       <c r="D66">
-        <v>-0.125455791647919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1346733853598436</v>
+      </c>
+      <c r="E66">
+        <v>-0.03297717697901589</v>
+      </c>
+      <c r="F66">
+        <v>0.01469974352884997</v>
+      </c>
+      <c r="G66">
+        <v>-0.02940148726787587</v>
+      </c>
+      <c r="H66">
+        <v>0.04796671731285556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03730003798686116</v>
+        <v>-0.03575473333102856</v>
       </c>
       <c r="C67">
-        <v>0.02335959240934519</v>
+        <v>-0.03104545928250694</v>
       </c>
       <c r="D67">
-        <v>-0.04726000305362424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03660883382809279</v>
+      </c>
+      <c r="E67">
+        <v>0.001753713274564061</v>
+      </c>
+      <c r="F67">
+        <v>0.03300996639231088</v>
+      </c>
+      <c r="G67">
+        <v>-0.04006732868623285</v>
+      </c>
+      <c r="H67">
+        <v>0.04367539439573871</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.194689588466522</v>
+        <v>-0.2438106277979335</v>
       </c>
       <c r="C68">
-        <v>-0.1881157134066571</v>
+        <v>0.1375037462607578</v>
       </c>
       <c r="D68">
-        <v>-0.02467120701959566</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02952810829707943</v>
+      </c>
+      <c r="E68">
+        <v>0.005523606411099707</v>
+      </c>
+      <c r="F68">
+        <v>-0.02998107414024375</v>
+      </c>
+      <c r="G68">
+        <v>-0.02415191622659408</v>
+      </c>
+      <c r="H68">
+        <v>-0.0630650121382527</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07737080882212093</v>
+        <v>-0.05115568797881064</v>
       </c>
       <c r="C69">
-        <v>0.1048100948242229</v>
+        <v>-0.1118247288011813</v>
       </c>
       <c r="D69">
-        <v>-0.07860547357340524</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04328866956971678</v>
+      </c>
+      <c r="E69">
+        <v>-0.009688979845978281</v>
+      </c>
+      <c r="F69">
+        <v>0.003020946926507403</v>
+      </c>
+      <c r="G69">
+        <v>0.01300295975226344</v>
+      </c>
+      <c r="H69">
+        <v>0.02226063747787405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.185608464708805</v>
+        <v>-0.2350648211868465</v>
       </c>
       <c r="C71">
-        <v>-0.1959799038400651</v>
+        <v>0.1476264483566796</v>
       </c>
       <c r="D71">
-        <v>-0.03713439516920006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03400970587037164</v>
+      </c>
+      <c r="E71">
+        <v>0.01400728824754156</v>
+      </c>
+      <c r="F71">
+        <v>-0.04107819828558218</v>
+      </c>
+      <c r="G71">
+        <v>-0.04946684410256379</v>
+      </c>
+      <c r="H71">
+        <v>-0.03290274899836471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.106433164681775</v>
+        <v>-0.08238899246323059</v>
       </c>
       <c r="C72">
-        <v>0.06799194500183683</v>
+        <v>-0.1034949205611132</v>
       </c>
       <c r="D72">
-        <v>-0.0833402385127425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07360223655164226</v>
+      </c>
+      <c r="E72">
+        <v>-0.07409734453819564</v>
+      </c>
+      <c r="F72">
+        <v>-0.01270931380303633</v>
+      </c>
+      <c r="G72">
+        <v>-0.02223014571364519</v>
+      </c>
+      <c r="H72">
+        <v>0.03988095499550042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2005526607089193</v>
+        <v>-0.1726911300890638</v>
       </c>
       <c r="C73">
-        <v>0.0395130007796613</v>
+        <v>-0.1072513494836744</v>
       </c>
       <c r="D73">
-        <v>-0.1449942443907306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05029680680816503</v>
+      </c>
+      <c r="E73">
+        <v>-0.4877154925521807</v>
+      </c>
+      <c r="F73">
+        <v>0.2138517056513813</v>
+      </c>
+      <c r="G73">
+        <v>0.3655182620874354</v>
+      </c>
+      <c r="H73">
+        <v>0.09468414146542667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.105508337253499</v>
+        <v>-0.07587291559469095</v>
       </c>
       <c r="C74">
-        <v>0.09652110862629434</v>
+        <v>-0.121139755704849</v>
       </c>
       <c r="D74">
-        <v>0.0231831461102037</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03052625874780368</v>
+      </c>
+      <c r="E74">
+        <v>0.02728829324041267</v>
+      </c>
+      <c r="F74">
+        <v>-0.06526811076288042</v>
+      </c>
+      <c r="G74">
+        <v>0.0144306451358401</v>
+      </c>
+      <c r="H74">
+        <v>-0.028526950644765</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2552614614650009</v>
+        <v>-0.19273662519231</v>
       </c>
       <c r="C75">
-        <v>0.1742817654575414</v>
+        <v>-0.2315562673492146</v>
       </c>
       <c r="D75">
-        <v>0.09511479915523649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1194228765923388</v>
+      </c>
+      <c r="E75">
+        <v>0.09218463776670587</v>
+      </c>
+      <c r="F75">
+        <v>0.01144550501828423</v>
+      </c>
+      <c r="G75">
+        <v>-0.04274399914652845</v>
+      </c>
+      <c r="H75">
+        <v>-0.04188359275067972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1404433551346807</v>
+        <v>-0.1018255150857108</v>
       </c>
       <c r="C76">
-        <v>0.1276437787599526</v>
+        <v>-0.157287236701021</v>
       </c>
       <c r="D76">
-        <v>-0.005513116487168804</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01523083487307354</v>
+      </c>
+      <c r="E76">
+        <v>0.04751570038223973</v>
+      </c>
+      <c r="F76">
+        <v>-0.03071142471876857</v>
+      </c>
+      <c r="G76">
+        <v>-0.05071876681675445</v>
+      </c>
+      <c r="H76">
+        <v>-0.0152911396868415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.03893962264533097</v>
+        <v>-0.04431570774538852</v>
       </c>
       <c r="C77">
-        <v>0.0765787965086826</v>
+        <v>-0.08494139558000482</v>
       </c>
       <c r="D77">
-        <v>-0.07073290333115539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2171160978963542</v>
+      </c>
+      <c r="E77">
+        <v>0.6357006131049088</v>
+      </c>
+      <c r="F77">
+        <v>0.45856582966859</v>
+      </c>
+      <c r="G77">
+        <v>0.423620328160699</v>
+      </c>
+      <c r="H77">
+        <v>-0.1331729437833783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03611533044210558</v>
+        <v>-0.03127326547255511</v>
       </c>
       <c r="C78">
-        <v>0.06498451560961677</v>
+        <v>-0.07740404559991608</v>
       </c>
       <c r="D78">
-        <v>-0.152303812494039</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1430636757520316</v>
+      </c>
+      <c r="E78">
+        <v>-0.03827646244480323</v>
+      </c>
+      <c r="F78">
+        <v>-0.03304966405783322</v>
+      </c>
+      <c r="G78">
+        <v>-0.0007303170852495504</v>
+      </c>
+      <c r="H78">
+        <v>0.02413826319247576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06283412716772172</v>
+        <v>-0.04819599970911995</v>
       </c>
       <c r="C79">
-        <v>0.1175847015525884</v>
+        <v>-0.1326165333543673</v>
       </c>
       <c r="D79">
-        <v>0.1082481040417011</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04065952313357947</v>
+      </c>
+      <c r="E79">
+        <v>0.1818389926175134</v>
+      </c>
+      <c r="F79">
+        <v>-0.7313896150270411</v>
+      </c>
+      <c r="G79">
+        <v>0.5135206257466263</v>
+      </c>
+      <c r="H79">
+        <v>0.1100880051656738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.01729619549911534</v>
+        <v>-0.01265277712556149</v>
       </c>
       <c r="C80">
-        <v>0.0480934059583204</v>
+        <v>-0.04964967720929269</v>
       </c>
       <c r="D80">
-        <v>-0.03171293244807036</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03329919518495961</v>
+      </c>
+      <c r="E80">
+        <v>-0.005917999799374088</v>
+      </c>
+      <c r="F80">
+        <v>-0.0200413122710047</v>
+      </c>
+      <c r="G80">
+        <v>-0.06680433698772964</v>
+      </c>
+      <c r="H80">
+        <v>-0.02113759568891206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1291347094989854</v>
+        <v>-0.08914924090580698</v>
       </c>
       <c r="C81">
-        <v>0.1304181362102415</v>
+        <v>-0.1530873998865583</v>
       </c>
       <c r="D81">
-        <v>0.07627798451810218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08107413808679007</v>
+      </c>
+      <c r="E81">
+        <v>0.08875471283949812</v>
+      </c>
+      <c r="F81">
+        <v>-0.05841822356219905</v>
+      </c>
+      <c r="G81">
+        <v>-0.07574380082903996</v>
+      </c>
+      <c r="H81">
+        <v>0.003408514663855608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2533224399090643</v>
+        <v>-0.1695680030301474</v>
       </c>
       <c r="C82">
-        <v>0.2645330627377053</v>
+        <v>-0.290578813145573</v>
       </c>
       <c r="D82">
-        <v>0.2307139414151091</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2256186994762387</v>
+      </c>
+      <c r="E82">
+        <v>0.04195606061348795</v>
+      </c>
+      <c r="F82">
+        <v>0.07228333932639321</v>
+      </c>
+      <c r="G82">
+        <v>-0.07595210674838311</v>
+      </c>
+      <c r="H82">
+        <v>0.01080021808285949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02108565937217759</v>
+        <v>-0.009022472689055077</v>
       </c>
       <c r="C83">
-        <v>0.06172176231000672</v>
+        <v>-0.05697619574894498</v>
       </c>
       <c r="D83">
-        <v>-0.03922875341326013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05016592237153429</v>
+      </c>
+      <c r="E83">
+        <v>0.08268429511218643</v>
+      </c>
+      <c r="F83">
+        <v>0.04961671675987026</v>
+      </c>
+      <c r="G83">
+        <v>-0.005553230539156024</v>
+      </c>
+      <c r="H83">
+        <v>0.01347064440727715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002385063274940991</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.009470676358498124</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0291385457986011</v>
+      </c>
+      <c r="E84">
+        <v>0.004710973582659223</v>
+      </c>
+      <c r="F84">
+        <v>-0.01849157144605126</v>
+      </c>
+      <c r="G84">
+        <v>-0.02918301686248642</v>
+      </c>
+      <c r="H84">
+        <v>-0.0224697203340926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1606814890659499</v>
+        <v>-0.1144732311277569</v>
       </c>
       <c r="C85">
-        <v>0.1320617992316043</v>
+        <v>-0.1753866915081499</v>
       </c>
       <c r="D85">
-        <v>0.0583130732499011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08678813726131625</v>
+      </c>
+      <c r="E85">
+        <v>0.01288918594036455</v>
+      </c>
+      <c r="F85">
+        <v>-0.09034604681227827</v>
+      </c>
+      <c r="G85">
+        <v>-0.01332447623902721</v>
+      </c>
+      <c r="H85">
+        <v>-0.01798074420831768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01243388389726439</v>
+        <v>-0.012565970875013</v>
       </c>
       <c r="C86">
-        <v>0.0289854599405002</v>
+        <v>-0.02922969414838311</v>
       </c>
       <c r="D86">
-        <v>-0.09909887770890526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.109758533843014</v>
+      </c>
+      <c r="E86">
+        <v>0.04561808703714749</v>
+      </c>
+      <c r="F86">
+        <v>0.01763681746161425</v>
+      </c>
+      <c r="G86">
+        <v>-0.01983143311107502</v>
+      </c>
+      <c r="H86">
+        <v>-0.0003013026076252373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02681570296895308</v>
+        <v>-0.02681104388371384</v>
       </c>
       <c r="C87">
-        <v>0.02707545090004656</v>
+        <v>-0.04367011398195194</v>
       </c>
       <c r="D87">
-        <v>-0.13293814832715</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1486765718513651</v>
+      </c>
+      <c r="E87">
+        <v>0.01606611649986218</v>
+      </c>
+      <c r="F87">
+        <v>-0.02948721558443648</v>
+      </c>
+      <c r="G87">
+        <v>-0.05493576295109521</v>
+      </c>
+      <c r="H87">
+        <v>0.000943516110778867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06412674348720183</v>
+        <v>-0.04830790975550624</v>
       </c>
       <c r="C88">
-        <v>0.05131908764202277</v>
+        <v>-0.06642128192837432</v>
       </c>
       <c r="D88">
-        <v>-0.05318623751264687</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02184301218045729</v>
+      </c>
+      <c r="E88">
+        <v>-0.01607373281856527</v>
+      </c>
+      <c r="F88">
+        <v>-0.0299668523936568</v>
+      </c>
+      <c r="G88">
+        <v>-0.007467852295684069</v>
+      </c>
+      <c r="H88">
+        <v>0.02765865109990773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2931915834922271</v>
+        <v>-0.3653175585296136</v>
       </c>
       <c r="C89">
-        <v>-0.359613522621866</v>
+        <v>0.2630583079205696</v>
       </c>
       <c r="D89">
-        <v>-0.01518163295503553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01920099857792787</v>
+      </c>
+      <c r="E89">
+        <v>0.04823643652772729</v>
+      </c>
+      <c r="F89">
+        <v>-0.02070980293513831</v>
+      </c>
+      <c r="G89">
+        <v>-0.08072519971494921</v>
+      </c>
+      <c r="H89">
+        <v>0.1176996861099762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2371869504535193</v>
+        <v>-0.287921992931909</v>
       </c>
       <c r="C90">
-        <v>-0.2620251378390258</v>
+        <v>0.1834765289820575</v>
       </c>
       <c r="D90">
-        <v>-0.03711169582841507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04105412763725214</v>
+      </c>
+      <c r="E90">
+        <v>0.01676734863783651</v>
+      </c>
+      <c r="F90">
+        <v>0.01085723880838528</v>
+      </c>
+      <c r="G90">
+        <v>-0.04608514684844975</v>
+      </c>
+      <c r="H90">
+        <v>-0.05539071317571616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1661936251898781</v>
+        <v>-0.1169590053208057</v>
       </c>
       <c r="C91">
-        <v>0.1760497590755859</v>
+        <v>-0.1969543177966348</v>
       </c>
       <c r="D91">
-        <v>0.08771791346318615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09327904231240593</v>
+      </c>
+      <c r="E91">
+        <v>0.09162479188868494</v>
+      </c>
+      <c r="F91">
+        <v>-0.08619646366514289</v>
+      </c>
+      <c r="G91">
+        <v>-0.007404397644127038</v>
+      </c>
+      <c r="H91">
+        <v>-0.009740382557991959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2036954749207797</v>
+        <v>-0.2800626438512659</v>
       </c>
       <c r="C92">
-        <v>-0.2579664462062282</v>
+        <v>0.2086975916826015</v>
       </c>
       <c r="D92">
-        <v>-0.02471271051403164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03992737415382847</v>
+      </c>
+      <c r="E92">
+        <v>0.1068759031389955</v>
+      </c>
+      <c r="F92">
+        <v>-0.04687895479487111</v>
+      </c>
+      <c r="G92">
+        <v>-0.08848185214910111</v>
+      </c>
+      <c r="H92">
+        <v>0.01603985021614365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2580748973673015</v>
+        <v>-0.3054584576669845</v>
       </c>
       <c r="C93">
-        <v>-0.282490144640367</v>
+        <v>0.1975858596106636</v>
       </c>
       <c r="D93">
-        <v>-0.03040135976430212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004457886433096121</v>
+      </c>
+      <c r="E93">
+        <v>-0.03327469920490914</v>
+      </c>
+      <c r="F93">
+        <v>-0.02792843291013136</v>
+      </c>
+      <c r="G93">
+        <v>0.03085160141850538</v>
+      </c>
+      <c r="H93">
+        <v>-0.002532293272754187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3385337230179321</v>
+        <v>-0.2491572824059138</v>
       </c>
       <c r="C94">
-        <v>0.2374997197071542</v>
+        <v>-0.3195991645514243</v>
       </c>
       <c r="D94">
-        <v>0.3672851057946098</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3666678571025334</v>
+      </c>
+      <c r="E94">
+        <v>0.05751569237482827</v>
+      </c>
+      <c r="F94">
+        <v>0.1002881089108473</v>
+      </c>
+      <c r="G94">
+        <v>-0.2647388978156185</v>
+      </c>
+      <c r="H94">
+        <v>-0.171670909224915</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05965566243554556</v>
+        <v>-0.05161372018543876</v>
       </c>
       <c r="C95">
-        <v>0.04263718387733968</v>
+        <v>-0.06433250442489868</v>
       </c>
       <c r="D95">
-        <v>-0.09094417887592228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09695347841981573</v>
+      </c>
+      <c r="E95">
+        <v>0.197303489974628</v>
+      </c>
+      <c r="F95">
+        <v>0.2295573053177882</v>
+      </c>
+      <c r="G95">
+        <v>0.004279838299298341</v>
+      </c>
+      <c r="H95">
+        <v>0.5207370070517617</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.043776009747975e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>6.009353591046608e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0004820728698483714</v>
+      </c>
+      <c r="E97">
+        <v>-0.0001069587172389234</v>
+      </c>
+      <c r="F97">
+        <v>0.0005275387403635952</v>
+      </c>
+      <c r="G97">
+        <v>8.397946307035019e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.0005998159646417961</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1664402905789318</v>
+        <v>-0.1461800140985647</v>
       </c>
       <c r="C98">
-        <v>0.05913798100329774</v>
+        <v>-0.109491941900176</v>
       </c>
       <c r="D98">
-        <v>-0.09720465602313209</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05187360020254329</v>
+      </c>
+      <c r="E98">
+        <v>-0.3057217306512556</v>
+      </c>
+      <c r="F98">
+        <v>0.1222707828407127</v>
+      </c>
+      <c r="G98">
+        <v>0.2098023350105299</v>
+      </c>
+      <c r="H98">
+        <v>0.02539329673412443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-8.798607272218401e-05</v>
+        <v>-0.001902723834522852</v>
       </c>
       <c r="C101">
-        <v>0.02330311881100761</v>
+        <v>-0.02662664788530012</v>
       </c>
       <c r="D101">
-        <v>-0.105114988476282</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1056873081283725</v>
+      </c>
+      <c r="E101">
+        <v>-0.02409924212302966</v>
+      </c>
+      <c r="F101">
+        <v>-0.03450007448085909</v>
+      </c>
+      <c r="G101">
+        <v>-0.07058333501179913</v>
+      </c>
+      <c r="H101">
+        <v>0.06996154783282715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1188369420569828</v>
+        <v>-0.07559130029738523</v>
       </c>
       <c r="C102">
-        <v>0.1388138019113055</v>
+        <v>-0.1439811970217519</v>
       </c>
       <c r="D102">
-        <v>0.07912005855969212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08884157677097063</v>
+      </c>
+      <c r="E102">
+        <v>0.03678907981447645</v>
+      </c>
+      <c r="F102">
+        <v>0.05031685557153145</v>
+      </c>
+      <c r="G102">
+        <v>-0.02051340796028833</v>
+      </c>
+      <c r="H102">
+        <v>0.04715769443879431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
